--- a/data/trans_orig/P14C29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B907BE-F057-4340-B7B9-DC94A59BDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A085A298-231A-41A0-B7CC-E5A2500E7834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47E1DC07-E382-49FD-82BB-92EAD19ABCD7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{447BD111-AB44-4725-88B6-D2768610AA0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -116,244 +116,244 @@
     <t>71,07%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
     <t>27,11%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E89EA1-C8CE-4D1C-983B-0B8BA3EE3048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4652D1DB-4AE4-4360-B991-345B030B5775}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A085A298-231A-41A0-B7CC-E5A2500E7834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAE4114-B0F3-40E0-BD0A-9A16E9A880C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{447BD111-AB44-4725-88B6-D2768610AA0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCE1B594-CD69-4796-92A2-4C6515AEE4E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="107">
   <si>
-    <t>Población según el tiempo de diagnóstico del osteoporosis en 2015 (Tasa respuesta: 1,67%)</t>
+    <t>Población según el tiempo de diagnóstico del osteoporosis en 2016 (Tasa respuesta: 1,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -107,7 +107,7 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>—%</t>
@@ -116,28 +116,28 @@
     <t>71,07%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -146,19 +146,19 @@
     <t>79,94%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -167,19 +167,19 @@
     <t>20,06%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -188,55 +188,55 @@
     <t>5,96%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>79,93%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>22,02%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>16,72%</t>
+    <t>20,29%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -245,55 +245,55 @@
     <t>68,69%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -302,19 +302,19 @@
     <t>75,73%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -323,37 +323,37 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4652D1DB-4AE4-4360-B991-345B030B5775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B65657-7846-454D-BEBA-B8A0FB5A5261}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
